--- a/RUDN/Importance/Varible_in_Northern America.xlsx
+++ b/RUDN/Importance/Varible_in_Northern America.xlsx
@@ -14,231 +14,213 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Birth rate, crude (per 1,000 people)</t>
   </si>
   <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
     <t>Fixed telephone subscriptions (per 100 people)</t>
   </si>
   <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
     <t>GDP per capita (Current US$)</t>
   </si>
   <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
     <t>Population, total</t>
   </si>
   <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
     <t>Death rate, crude (per 1,000 people)</t>
   </si>
   <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
     <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services (% of population)</t>
+    <t>Urban population</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
   </si>
   <si>
     <t>Country_code</t>
   </si>
   <si>
+    <t>Age at first marriage, female</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
     <t>People using basic sanitation services (% of population)</t>
   </si>
   <si>
-    <t>Gross capital formation (% of GDP)</t>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 0, female, interpolated</t>
   </si>
   <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
+  </si>
+  <si>
+    <t>Rural population</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age at first marriage, male</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
   </si>
   <si>
     <t>People using safely managed sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Urban population</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, female</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Rural population</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
   </si>
 </sst>
 </file>
@@ -596,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.09388646483421326</v>
+        <v>0.09111617505550385</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -620,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.08078602701425552</v>
+        <v>0.06605922430753708</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -628,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.05458515137434006</v>
+        <v>0.05922551080584526</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -636,7 +618,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.05240174755454063</v>
+        <v>0.05922551080584526</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -644,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04803493618965149</v>
+        <v>0.05466970428824425</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -652,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.04585152864456177</v>
+        <v>0.05466970428824425</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -660,7 +642,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.04585152864456177</v>
+        <v>0.04328018054366112</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -668,7 +650,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.04148471727967262</v>
+        <v>0.04100227728486061</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -676,7 +658,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0393013097345829</v>
+        <v>0.0364464707672596</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -684,7 +666,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.03711790218949318</v>
+        <v>0.02961275540292263</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -692,7 +674,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.03056768514215946</v>
+        <v>0.02733485214412212</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -700,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.02838427945971489</v>
+        <v>0.02733485214412212</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -708,7 +690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.02620087377727032</v>
+        <v>0.02733485214412212</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -716,7 +698,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.02620087377727032</v>
+        <v>0.02733485214412212</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -724,7 +706,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.02401746809482574</v>
+        <v>0.02505694702267647</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -732,7 +714,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.02183406054973602</v>
+        <v>0.02277904376387596</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -740,7 +722,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.01746724918484688</v>
+        <v>0.02277904376387596</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -748,7 +730,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.01746724918484688</v>
+        <v>0.02050113864243031</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -756,7 +738,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.01746724918484688</v>
+        <v>0.0182232353836298</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -764,7 +746,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.01310043688863516</v>
+        <v>0.0182232353836298</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -772,7 +754,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.01310043688863516</v>
+        <v>0.01366742607206106</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -780,7 +762,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.01091703027486801</v>
+        <v>0.01366742607206106</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -788,7 +770,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.008733624592423439</v>
+        <v>0.01138952188193798</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -796,7 +778,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.008733624592423439</v>
+        <v>0.01138952188193798</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -804,7 +786,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.008733624592423439</v>
+        <v>0.01138952188193798</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -812,7 +794,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.008733624592423439</v>
+        <v>0.009111617691814899</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -820,7 +802,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.008733624592423439</v>
+        <v>0.009111617691814899</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -828,7 +810,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.008733624592423439</v>
+        <v>0.006833713036030531</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -836,7 +818,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.006550218444317579</v>
+        <v>0.006833713036030531</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -844,7 +826,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.006550218444317579</v>
+        <v>0.006833713036030531</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -852,7 +834,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.006550218444317579</v>
+        <v>0.006833713036030531</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -860,7 +842,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.006550218444317579</v>
+        <v>0.00455580884590745</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -868,7 +850,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.006550218444317579</v>
+        <v>0.00455580884590745</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -876,7 +858,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.006550218444317579</v>
+        <v>0.00455580884590745</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -884,7 +866,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.00436681229621172</v>
+        <v>0.00455580884590745</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -892,7 +874,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.00436681229621172</v>
+        <v>0.00455580884590745</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -900,7 +882,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.00436681229621172</v>
+        <v>0.00455580884590745</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -908,7 +890,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.00436681229621172</v>
+        <v>0.00455580884590745</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -916,7 +898,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.00436681229621172</v>
+        <v>0.00455580884590745</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -924,7 +906,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.00436681229621172</v>
+        <v>0.00455580884590745</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -932,7 +914,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.00436681229621172</v>
+        <v>0.00455580884590745</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -940,7 +922,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.00436681229621172</v>
+        <v>0.00455580884590745</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -948,7 +930,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.00436681229621172</v>
+        <v>0.00455580884590745</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -956,7 +938,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.00436681229621172</v>
+        <v>0.00455580884590745</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -964,7 +946,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.00436681229621172</v>
+        <v>0.00455580884590745</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -972,7 +954,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.00436681229621172</v>
+        <v>0.00455580884590745</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -980,7 +962,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.00436681229621172</v>
+        <v>0.002277904422953725</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -988,7 +970,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.00436681229621172</v>
+        <v>0.002277904422953725</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -996,7 +978,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.00436681229621172</v>
+        <v>0.002277904422953725</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1004,7 +986,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.00218340614810586</v>
+        <v>0.002277904422953725</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1012,7 +994,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.00218340614810586</v>
+        <v>0.002277904422953725</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1020,7 +1002,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.00218340614810586</v>
+        <v>0.002277904422953725</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1028,7 +1010,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.00218340614810586</v>
+        <v>0.002277904422953725</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1036,7 +1018,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.00218340614810586</v>
+        <v>0.002277904422953725</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1044,7 +1026,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.00218340614810586</v>
+        <v>0.002277904422953725</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1052,7 +1034,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.00218340614810586</v>
+        <v>0.002277904422953725</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1060,7 +1042,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.00218340614810586</v>
+        <v>0.002277904422953725</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1068,7 +1050,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.00218340614810586</v>
+        <v>0.002277904422953725</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1076,7 +1058,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.00218340614810586</v>
+        <v>0.002277904422953725</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1084,7 +1066,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.00218340614810586</v>
+        <v>0.002277904422953725</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1092,7 +1074,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.00218340614810586</v>
+        <v>0.002277904422953725</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1100,7 +1082,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.00218340614810586</v>
+        <v>0.002277904422953725</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1108,7 +1090,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.00218340614810586</v>
+        <v>0.002277904422953725</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1116,7 +1098,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.00218340614810586</v>
+        <v>0.002277904422953725</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1124,7 +1106,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.00218340614810586</v>
+        <v>0.002277904422953725</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1132,7 +1114,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.00218340614810586</v>
+        <v>0.002277904422953725</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1140,7 +1122,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.00218340614810586</v>
+        <v>0.002277904422953725</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1148,7 +1130,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.00218340614810586</v>
+        <v>0.002277904422953725</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1156,55 +1138,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.00218340614810586</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>0.00218340614810586</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>0.00218340614810586</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>0.00218340614810586</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>0.00218340614810586</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>0.00218340614810586</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>0.00218340614810586</v>
+        <v>0.002277904422953725</v>
       </c>
     </row>
   </sheetData>
